--- a/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
+++ b/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846A5E1-DCC5-463F-B5F3-3C789087EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E7AE6EC4-114C-41D3-8E95-DDE0B9980B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Expected Result (7-person team)" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <oleSize ref="A10:M20"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>ClimbSafe: startDate = 2022-04-01; nrOfWeeks = 5; priceOfGuidePerWeek = 50</t>
   </si>
@@ -239,6 +241,9 @@
   </si>
   <si>
     <t>2+3) You may want to adapt the provided test of the persistence layer (see DemoFileVerifier) to be able to test your persistence layer. The Java files required for the persistence layer are in the ca.mcgill.ecse.climbsafe.demo.persistence package. You may want to replace your persistence layer with these provided files, especially if you are having issue with your persistence layer. Note that the provided test does not cover assignments.</t>
+  </si>
+  <si>
+    <t>ClimbingPath: location = "The Death Trail"; length = 2;</t>
   </si>
 </sst>
 </file>
@@ -355,10 +360,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,12 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,127 +716,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:16" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:16" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="218.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:16" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -840,50 +847,65 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:16" customFormat="1" ht="218.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="A22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
@@ -895,52 +917,52 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="str">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]"</f>
         <v>Step 1: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides."</f>
         <v>Step 2: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides.</v>
@@ -958,115 +980,115 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="str">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the pickaxe equipment. [error (used in bundle)]"</f>
         <v>Step 3: Delete the pickaxe equipment. [error (used in bundle)]</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="str">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the plus equipment bundle."</f>
         <v>Step 4: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the plus equipment bundle.</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="str">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the pickaxe equipment."</f>
         <v>Step 5: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the pickaxe equipment.</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="str">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the pickaxe equipment. &lt;&lt;FOR 5-PERSON TEAMS: boots instead of pickaxe&gt;&gt; [error (pickaxe/boots does not exist)] "</f>
         <v xml:space="preserve">Step 6: Update the pickaxe equipment. &lt;&lt;FOR 5-PERSON TEAMS: boots instead of pickaxe&gt;&gt; [error (pickaxe/boots does not exist)] </v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="str">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]"</f>
         <v>Step 7: Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="str">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]"</f>
         <v>Step 8: Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of 3500 and a $80 weekly price."</f>
         <v>Step 9: Add the boot equipment with a weight of 3500 and a $80 weekly price.</v>
@@ -1084,7 +1106,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the boot equipment to boots with a weight of 3500 and a $80 weekly price."</f>
         <v>Step 10: Update the boot equipment to boots with a weight of 3500 and a $80 weekly price.</v>
@@ -1102,223 +1124,223 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="str">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots."</f>
         <v>Step 11: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots.</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="str">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]"</f>
         <v>Step 12: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots."</f>
         <v>Step 13: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots.</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="str">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Add the five star hotel Mountain View at 333 Valley Street."</f>
         <v>Step 14: &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Add the five star hotel Mountain View at 333 Valley Street.</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="str">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Delete the hotel Climbers' Lodge."</f>
         <v>Step 15: &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Delete the hotel Climbers' Lodge.</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="str">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road."</f>
         <v>Step 16: &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road.</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="str">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]"</f>
         <v>Step 17: Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="str">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]"</f>
         <v>Step 18: Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="str">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]"</f>
         <v>Step 19: Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="str">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666."</f>
         <v>Step 20: Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666.</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="str">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]"</f>
         <v>Step 21: Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="str">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666."</f>
         <v>Step 22: Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666.</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the guide bob@gmail.com."</f>
         <v>Step 23: Delete the guide bob@gmail.com.</v>
@@ -1336,206 +1358,206 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="str">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222."</f>
         <v>Step 24: Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222.</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="str">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid email)]"</f>
         <v>Step 25: Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid email)]</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="str">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid emergency contact)]"</f>
         <v>Step 26: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid emergency contact)]</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="str">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles. [error (7)]"</f>
         <v>Step 27: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles. [error (7)]</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="str">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (guide exists)]"</f>
         <v>Step 28: Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (guide exists)]</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="str">
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles."</f>
         <v>Step 29: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles.</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="str">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid name)]"</f>
         <v>Step 30: Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid name)]</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="str">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt; [error (backpack does not exist)]")</f>
         <v>Step 31: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt; [error (backpack does not exist)]</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="str">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 large). [error (large does not exist)]")</f>
         <v>Step 32: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 large). [error (large does not exist)]</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="str">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;")</f>
         <v>Step 33: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="str">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles."</f>
         <v>Step 34: Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles.</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the member with email julie@hotmail.com."</f>
         <v>Step 35: Delete the member with email julie@hotmail.com.</v>
@@ -1553,25 +1575,25 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="str">
+    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jack@hotmail.com to ","password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, and bundles (1 standard, 1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;")</f>
         <v>Step 36: Update the member with email jack@hotmail.com to password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, and bundles (1 standard, 1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Initiate the assignments"</f>
         <v>Step 37: Initiate the assignments</v>
@@ -1589,24 +1611,24 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Assigned, no authCode, 0% refund"</f>
@@ -1626,7 +1648,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jane@hotmail.com:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Assigned, no authCode, 0% refund"</f>
@@ -1646,7 +1668,7 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jack@hotmail.com:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Assigned, no authCode, 0% refund"</f>
@@ -1666,7 +1688,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund"</f>
@@ -1686,7 +1708,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jennifer@hotmail.com:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Assigned, no authCode, 0% refund"</f>
@@ -1706,7 +1728,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jeremy@hotmail.com:
 Jeremy Black assigned to no guide for week 1; guide: $0, equipment: $0 [0]; status: Assigned, no authCode, 0% refund"</f>
@@ -1726,7 +1748,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com pays with authorization code PLUS; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Paid, authCode PLUS, 0% refund"</f>
@@ -1746,7 +1768,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com pays with authorization code OK; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Paid, authCode OK, 0% refund"</f>
@@ -1766,7 +1788,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jennifer@hotmail.com cancels her trip; view her assignment:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Cancelled, no authCode, 0% refund"</f>
@@ -1786,7 +1808,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": The administrator starts the trips for week 1."</f>
         <v>Step 47: The administrator starts the trips for week 1.</v>
@@ -1804,7 +1826,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Banned, no authCode, 0% refund"</f>
@@ -1824,7 +1846,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund"</f>
@@ -1844,7 +1866,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com cancels his trip; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Cancelled, authCode PLUS, 10% refund"</f>
@@ -1864,7 +1886,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com finishes her trip; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Finished, authCode OK, 0% refund"</f>
@@ -1884,25 +1906,63 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A21:M21"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A13:M13"/>
     <mergeCell ref="A1:M1"/>
@@ -1919,44 +1979,6 @@
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
@@ -1969,40 +1991,40 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2034,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2046,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
@@ -2043,7 +2065,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
@@ -2062,7 +2084,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
@@ -2081,7 +2103,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
@@ -2100,7 +2122,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
@@ -2168,40 +2190,40 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2233,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +2245,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2264,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
@@ -2261,7 +2283,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +2302,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2299,7 +2321,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
@@ -2318,7 +2340,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
@@ -2359,40 +2381,40 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +2424,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +2436,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2455,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
@@ -2452,7 +2474,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2471,7 +2493,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2490,7 +2512,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
@@ -2509,7 +2531,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>

--- a/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
+++ b/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDC2D7-470D-4D7B-8661-00B22EC176F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AF819-C4FB-4704-8344-04AA41E53E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4104" yWindow="1908" windowWidth="17280" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -332,31 +332,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,10 +890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F745555-941E-4DB8-BBBA-D89AE81EA399}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,26 +904,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2020-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (date in past)]"</f>
-        <v>Step 1: Set the NMC program information with a start date of 2020-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (date in past)]</v>
+        <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2020-Jan-13, a climbing season of 4 weeks, and a $60 weekly price for guides. [error (date in past)]"</f>
+        <v>Step 1: Set the NMC program information with a start date of 2020-Jan-13, a climbing season of 4 weeks, and a $60 weekly price for guides. [error (date in past)]</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -936,315 +939,315 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]"</f>
         <v>Step 2: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="str">
+      <c r="A4" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides."</f>
         <v>Step 3: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides.</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
+      <c r="A5" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the pickaxe equipment. [error (used in bundle)]"</f>
         <v>Step 4: Delete the pickaxe equipment. [error (used in bundle)]</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="str">
+      <c r="A6" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the plus equipment bundle."</f>
         <v>Step 5: Delete the plus equipment bundle.</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the pickaxe equipment."</f>
         <v>Step 6: Delete the pickaxe equipment.</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Update the pickaxe equipment. &lt;&lt;FOR 5-PERSON TEAMS: boots instead of pickaxe&gt;&gt; [error (pickaxe/boots does not exist)] "</f>
-        <v xml:space="preserve">Step 7: Update the pickaxe equipment. &lt;&lt;FOR 5-PERSON TEAMS: boots instead of pickaxe&gt;&gt; [error (pickaxe/boots does not exist)] </v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="A8" s="18" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Update the rope to have name rope2. [error (no numbers)] "</f>
+        <v xml:space="preserve">Step 7: Update the rope to have name rope2. [error (no numbers)] </v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
+      <c r="A9" s="9" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Update the pickaxe equipment to have weight 10 and price 70$. [error (pickaxe/boots does not exist)] "</f>
+        <v xml:space="preserve">Step 8: Update the pickaxe equipment to have weight 10 and price 70$. [error (pickaxe/boots does not exist)] </v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]"</f>
-        <v>Step 8: Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
+        <v>Step 9: Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]"</f>
-        <v>Step 9: Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="str">
+        <v>Step 10: Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of 3500 and a $80 weekly price."</f>
-        <v>Step 10: Add the boot equipment with a weight of 3500 and a $80 weekly price.</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="str">
+        <v>Step 11: Add the boot equipment with a weight of 3500 and a $80 weekly price.</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the boot equipment to boots with a weight of 3500 and a $80 weekly price."</f>
-        <v>Step 11: Update the boot equipment to boots with a weight of 3500 and a $80 weekly price.</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="str">
+        <v>Step 12: Update the boot equipment to boots with a weight of 3500 and a $80 weekly price.</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Add the deluxe equipment bundle with a 40% discount, 2 ropes and 1 rope [error (can only select each item once)]."</f>
+        <v>Step 13: Add the deluxe equipment bundle with a 40% discount, 2 ropes and 1 rope [error (can only select each item once)].</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots."</f>
-        <v>Step 12: Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots.</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="str">
+        <v>Step 14: Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots.</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]"</f>
-        <v>Step 13: Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="str">
+        <v>Step 15: Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots."</f>
-        <v>Step 14: Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots.</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="str">
+        <v>Step 16: Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots.</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the five star hotel Mountain View at 333 Valley Street."</f>
-        <v>Step 15: Add the five star hotel Mountain View at 333 Valley Street.</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="str">
+        <v>Step 17: Add the five star hotel Mountain View at 333 Valley Street.</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the hotel Climbers' Lodge."</f>
-        <v>Step 16: Delete the hotel Climbers' Lodge.</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road."</f>
-        <v>Step 17: Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road.</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Delete climbing path with location Mont Tremblant. [error (selected by user)]"</f>
-        <v>Step 18: Delete climbing path with location Mont Tremblant. [error (selected by user)]</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+        <v>Step 18: Delete the hotel Climbers' Lodge.</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Delete climbing path with location Joyful Walk."</f>
-        <v>Step 19: Delete climbing path with location Joyful Walk.</v>
+        <f>"Step "&amp;ROW()-1&amp;": Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road."</f>
+        <v>Step 19: Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road.</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1260,207 +1263,207 @@
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="str">
+      <c r="A21" s="17" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Delete climbing path with location Mont Tremblant. [error (selected by user)]"</f>
+        <v>Step 20: Delete climbing path with location Mont Tremblant. [error (selected by user)]</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Delete climbing path with location Joyful Walk."</f>
+        <v>Step 21: Delete climbing path with location Joyful Walk.</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the climbing path with location Mont Tremblant to have location Mont Royal, difficulty Moderate, and length 8."</f>
-        <v>Step 20: Update the climbing path with location Mont Tremblant to have location Mont Royal, difficulty Moderate, and length 8.</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="str">
+        <v>Step 22: Update the climbing path with location Mont Tremblant to have location Mont Royal, difficulty Moderate, and length 8.</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add climbing path with location Backside, difficulty Moderate, and length 9."</f>
-        <v>Step 21: Add climbing path with location Backside, difficulty Moderate, and length 9.</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
+        <v>Step 23: Add climbing path with location Backside, difficulty Moderate, and length 9.</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]"</f>
-        <v>Step 22: Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
+        <v>Step 24: Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]"</f>
-        <v>Step 23: Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
+        <v>Step 25: Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]"</f>
-        <v>Step 24: Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="str">
+        <v>Step 26: Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Register a guide with email joe@hotmail.com, password 9876, name Ben@ Hill, and emergency contact (222) 987-6666. [error (Only letters allowed in name)]"</f>
+        <v>Step 27: Register a guide with email joe@hotmail.com, password 9876, name Ben@ Hill, and emergency contact (222) 987-6666. [error (Only letters allowed in name)]</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666."</f>
-        <v>Step 25: Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666.</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
+        <v>Step 28: Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666.</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]"</f>
-        <v>Step 26: Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="str">
+        <v>Step 29: Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666."</f>
-        <v>Step 27: Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666.</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="str">
+        <v>Step 30: Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666.</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the guide bob@gmail.com."</f>
-        <v>Step 28: Delete the guide bob@gmail.com.</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222."</f>
-        <v>Step 29: Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222.</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, no equipment/bundles, and location Backside. [error (invalid email)]"</f>
-        <v>Step 30: Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, no equipment/bundles, and location Backside. [error (invalid email)]</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (invalid emergency contact)]"</f>
-        <v>Step 31: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (invalid emergency contact)]</v>
+        <v>Step 31: Delete the guide bob@gmail.com.</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1476,633 +1479,709 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
+      <c r="A33" s="12" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222."</f>
+        <v>Step 32: Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222.</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, no equipment/bundles, and location Backside. [error (invalid email)]"</f>
+        <v>Step 33: Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, no equipment/bundles, and location Backside. [error (invalid email)]</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (invalid emergency contact)]"</f>
+        <v>Step 34: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (invalid emergency contact)]</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (7)]"</f>
-        <v>Step 32: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (7)]</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
+        <v>Step 35: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (7)]</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (guide exists)]"</f>
-        <v>Step 33: Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (guide exists)]</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="str">
+        <v>Step 36: Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (guide exists)]</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location BackSide."</f>
-        <v>Step 34: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location BackSide.</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
+        <v>Step 37: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location BackSide.</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="str">
+        <f>"Step "&amp;ROW()-1&amp;": Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and empty location. [error (must select path)]"</f>
+        <v>Step 38: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and empty location. [error (must select path)]</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location The Death Trail. [error (invalid name)]"</f>
-        <v>Step 35: Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location The Death Trail. [error (invalid name)]</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="str">
+        <v>Step 39: Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location The Death Trail. [error (invalid name)]</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe), and location The Death Trail.[error (backpack does not exist - Not allowed by UI)]")</f>
-        <v>Step 36: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe), and location The Death Trail.[error (backpack does not exist - Not allowed by UI)]</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
+        <v>Step 40: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe), and location The Death Trail.[error (backpack does not exist - Not allowed by UI)]</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 large), and location The Death Trail. [error (large does not exist - Not allowed by UI)]")</f>
-        <v>Step 37: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 large), and location The Death Trail. [error (large does not exist - Not allowed by UI)]</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="str">
+        <v>Step 41: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 large), and location The Death Trail. [error (large does not exist - Not allowed by UI)]</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 deluxe), and location Mont Royal.")</f>
-        <v>Step 38: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 deluxe), and location Mont Royal.</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="str">
+        <v>Step 42: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 deluxe), and location Mont Royal.</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles, and location BackSide."</f>
-        <v>Step 39: Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles, and location BackSide.</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="str">
+        <v>Step 43: Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles, and location BackSide.</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the member with email julie@hotmail.com."</f>
-        <v>Step 40: Delete the member with email julie@hotmail.com.</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="str">
+        <v>Step 44: Delete the member with email julie@hotmail.com.</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jack@hotmail.com to ","password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, bundles (1 standard, 1 deluxe), and location Mont Royal. ")</f>
-        <v xml:space="preserve">Step 41: Update the member with email jack@hotmail.com to password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, bundles (1 standard, 1 deluxe), and location Mont Royal. </v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="str">
+        <v xml:space="preserve">Step 45: Update the member with email jack@hotmail.com to password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, bundles (1 standard, 1 deluxe), and location Mont Royal. </v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Initiate the assignments"</f>
-        <v>Step 42: Initiate the assignments</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+        <v>Step 46: Initiate the assignments</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="str">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 43: view the assignment of joe@hotmail.com:
+        <v>Step 47: view the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="str">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jane@hotmail.com:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 44: view the assignment of jane@hotmail.com:
+        <v>Step 48: view the assignment of jane@hotmail.com:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="str">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jack@hotmail.com:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 45: view the assignment of jack@hotmail.com:
+        <v>Step 49: view the assignment of jack@hotmail.com:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="str">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 46: view the assignment of jon@hotmail.com:
+        <v>Step 50: view the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="str">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jennifer@hotmail.com:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 47: view the assignment of jennifer@hotmail.com:
+        <v>Step 51: view the assignment of jennifer@hotmail.com:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="str">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jeremy@hotmail.com:
 Jeremy Black assigned to no guide for week 1; guide: $0, equipment: $0 [0]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 48: view the assignment of jeremy@hotmail.com:
+        <v>Step 52: view the assignment of jeremy@hotmail.com:
 Jeremy Black assigned to no guide for week 1; guide: $0, equipment: $0 [0]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="str">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com pays with authorization code PLUS; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Paid, authCode PLUS, 0% refund"</f>
-        <v>Step 49: jack@hotmail.com pays with authorization code PLUS; view his assignment:
+        <v>Step 53: jack@hotmail.com pays with authorization code PLUS; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Paid, authCode PLUS, 0% refund</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="str">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com pays with authorization code OK; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Paid, authCode OK, 0% refund"</f>
-        <v>Step 50: jane@hotmail.com pays with authorization code OK; view her assignment:
+        <v>Step 54: jane@hotmail.com pays with authorization code OK; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Paid, authCode OK, 0% refund</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-    </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="str">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jennifer@hotmail.com cancels her trip; view her assignment:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Cancelled, no authCode, 0% refund"</f>
-        <v>Step 51: jennifer@hotmail.com cancels her trip; view her assignment:
+        <v>Step 55: jennifer@hotmail.com cancels her trip; view her assignment:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Cancelled, no authCode, 0% refund</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="str">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": The administrator starts the trips for week 1."</f>
-        <v>Step 52: The administrator starts the trips for week 1.</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="str">
+        <v>Step 56: The administrator starts the trips for week 1.</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Banned, no authCode, 0% refund"</f>
-        <v>Step 53: View the assignment of joe@hotmail.com:
+        <v>Step 57: View the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Banned, no authCode, 0% refund</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="str">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund"</f>
-        <v>Step 54: View the assignment of jon@hotmail.com:
+        <v>Step 58: View the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="str">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com cancels his trip; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Cancelled, authCode PLUS, 10% refund"</f>
-        <v>Step 55: jack@hotmail.com cancels his trip; view his assignment:
+        <v>Step 59: jack@hotmail.com cancels his trip; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Cancelled, authCode PLUS, 10% refund</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="str">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+    </row>
+    <row r="62" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com finishes her trip; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Finished, authCode OK, 0% refund"</f>
-        <v>Step 56: jane@hotmail.com finishes her trip; view her assignment:
+        <v>Step 60: jane@hotmail.com finishes her trip; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Finished, authCode OK, 0% refund</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="str">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com reviews his trip with rating VeryGood and comment Loved the guide!"</f>
-        <v>Step 57: jack@hotmail.com reviews his trip with rating VeryGood and comment Loved the guide!</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-    </row>
-    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="str">
+        <v>Step 61: jack@hotmail.com reviews his trip with rating VeryGood and comment Loved the guide!</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com reviews her trip with rating Poor and comment Instructions unclear, got lost."</f>
-        <v>Step 58: jane@hotmail.com reviews her trip with rating Poor and comment Instructions unclear, got lost.</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="str">
+        <v>Step 62: jane@hotmail.com reviews her trip with rating Poor and comment Instructions unclear, got lost.</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View assignments and check that the reviews popped up."</f>
-        <v>Step 59: View assignments and check that the reviews popped up.</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+        <v>Step 63: View assignments and check that the reviews popped up.</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A38:M38"/>
+  <mergeCells count="65">
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A28:M28"/>
     <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A15:M15"/>
     <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A14:M14"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A15:M15"/>
     <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A62:M62"/>
+    <mergeCell ref="A66:M66"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A40:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
@@ -2303,6 +2382,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001E7BB30FBC6214DBD0D348E10E21199" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54b6358b3394cc8e6b2681295daed10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e587ebec-d06b-4919-a3ba-71b2a76ba151" xmlns:ns4="1a7954ed-4a60-4998-b9ad-5d668ec55e67" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac5c3bf46814848a179fc74bdc030b46" ns3:_="" ns4:_="">
     <xsd:import namespace="e587ebec-d06b-4919-a3ba-71b2a76ba151"/>
@@ -2525,15 +2613,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2541,6 +2620,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C087C8-56F2-4A31-96C9-71961D6842F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D84F19-FE83-4479-9586-04286BAD01BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2559,14 +2646,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C087C8-56F2-4A31-96C9-71961D6842F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6520150-4CC9-4AAB-A232-239A2E490B02}">
   <ds:schemaRefs>

--- a/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
+++ b/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AF819-C4FB-4704-8344-04AA41E53E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C453BF0-C7C1-49C0-BBD2-88FC9F083DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="1908" windowWidth="17280" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="816" yWindow="4692" windowWidth="17280" windowHeight="10056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -332,34 +332,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F745555-941E-4DB8-BBBA-D89AE81EA399}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:M41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,1164 +939,1164 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]"</f>
         <v>Step 2: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
+      <c r="A4" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides."</f>
         <v>Step 3: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides.</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the pickaxe equipment. [error (used in bundle)]"</f>
         <v>Step 4: Delete the pickaxe equipment. [error (used in bundle)]</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="str">
+      <c r="A6" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the plus equipment bundle."</f>
         <v>Step 5: Delete the plus equipment bundle.</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the pickaxe equipment."</f>
         <v>Step 6: Delete the pickaxe equipment.</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="9" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the rope to have name rope2. [error (no numbers)] "</f>
         <v xml:space="preserve">Step 7: Update the rope to have name rope2. [error (no numbers)] </v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the pickaxe equipment to have weight 10 and price 70$. [error (pickaxe/boots does not exist)] "</f>
         <v xml:space="preserve">Step 8: Update the pickaxe equipment to have weight 10 and price 70$. [error (pickaxe/boots does not exist)] </v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]"</f>
         <v>Step 9: Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]"</f>
         <v>Step 10: Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of 3500 and a $80 weekly price."</f>
         <v>Step 11: Add the boot equipment with a weight of 3500 and a $80 weekly price.</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
+      <c r="A13" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the boot equipment to boots with a weight of 3500 and a $80 weekly price."</f>
         <v>Step 12: Update the boot equipment to boots with a weight of 3500 and a $80 weekly price.</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the deluxe equipment bundle with a 40% discount, 2 ropes and 1 rope [error (can only select each item once)]."</f>
         <v>Step 13: Add the deluxe equipment bundle with a 40% discount, 2 ropes and 1 rope [error (can only select each item once)].</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="str">
+      <c r="A15" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots."</f>
         <v>Step 14: Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots.</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="10" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]"</f>
         <v>Step 15: Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="str">
+      <c r="A17" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots."</f>
         <v>Step 16: Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots.</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="str">
+      <c r="A18" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the five star hotel Mountain View at 333 Valley Street."</f>
         <v>Step 17: Add the five star hotel Mountain View at 333 Valley Street.</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="str">
+      <c r="A19" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the hotel Climbers' Lodge."</f>
         <v>Step 18: Delete the hotel Climbers' Lodge.</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="str">
+      <c r="A20" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road."</f>
         <v>Step 19: Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road.</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete climbing path with location Mont Tremblant. [error (selected by user)]"</f>
         <v>Step 20: Delete climbing path with location Mont Tremblant. [error (selected by user)]</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="18" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete climbing path with location Joyful Walk."</f>
         <v>Step 21: Delete climbing path with location Joyful Walk.</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="str">
+      <c r="A23" s="18" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the climbing path with location Mont Tremblant to have location Mont Royal, difficulty Moderate, and length 8."</f>
         <v>Step 22: Update the climbing path with location Mont Tremblant to have location Mont Royal, difficulty Moderate, and length 8.</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="18" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add climbing path with location Backside, difficulty Moderate, and length 9."</f>
         <v>Step 23: Add climbing path with location Backside, difficulty Moderate, and length 9.</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="str">
+      <c r="A25" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]"</f>
         <v>Step 24: Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="str">
+      <c r="A26" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]"</f>
         <v>Step 25: Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="str">
+      <c r="A27" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]"</f>
         <v>Step 26: Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="str">
+      <c r="A28" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email joe@hotmail.com, password 9876, name Ben@ Hill, and emergency contact (222) 987-6666. [error (Only letters allowed in name)]"</f>
         <v>Step 27: Register a guide with email joe@hotmail.com, password 9876, name Ben@ Hill, and emergency contact (222) 987-6666. [error (Only letters allowed in name)]</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="str">
+      <c r="A29" s="17" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666."</f>
         <v>Step 28: Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666.</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="str">
+      <c r="A30" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]"</f>
         <v>Step 29: Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="str">
+      <c r="A31" s="17" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666."</f>
         <v>Step 30: Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666.</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the guide bob@gmail.com."</f>
         <v>Step 31: Delete the guide bob@gmail.com.</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="str">
+      <c r="A33" s="17" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222."</f>
         <v>Step 32: Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222.</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="str">
+      <c r="A34" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, no equipment/bundles, and location Backside. [error (invalid email)]"</f>
         <v>Step 33: Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, no equipment/bundles, and location Backside. [error (invalid email)]</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="str">
+      <c r="A35" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (invalid emergency contact)]"</f>
         <v>Step 34: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (invalid emergency contact)]</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="str">
+      <c r="A36" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (7)]"</f>
         <v>Step 35: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (7)]</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="str">
+      <c r="A37" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (guide exists)]"</f>
         <v>Step 36: Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location Backside. [error (guide exists)]</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="str">
+      <c r="A38" s="17" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location BackSide."</f>
         <v>Step 37: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location BackSide.</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="str">
+      <c r="A39" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and empty location. [error (must select path)]"</f>
         <v>Step 38: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and empty location. [error (must select path)]</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="str">
+      <c r="A40" s="15" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location The Death Trail. [error (invalid name)]"</f>
         <v>Step 39: Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles, and location The Death Trail. [error (invalid name)]</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="str">
+      <c r="A41" s="10" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe), and location The Death Trail.[error (backpack does not exist - Not allowed by UI)]")</f>
         <v>Step 40: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe), and location The Death Trail.[error (backpack does not exist - Not allowed by UI)]</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="str">
+      <c r="A42" s="15" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 large), and location The Death Trail. [error (large does not exist - Not allowed by UI)]")</f>
         <v>Step 41: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 large), and location The Death Trail. [error (large does not exist - Not allowed by UI)]</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
     </row>
     <row r="43" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="str">
+      <c r="A43" s="12" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 deluxe), and location Mont Royal.")</f>
         <v>Step 42: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), bundles (1 deluxe), and location Mont Royal.</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="str">
+      <c r="A44" s="17" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles, and location BackSide."</f>
         <v>Step 43: Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles, and location BackSide.</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
+      <c r="A45" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the member with email julie@hotmail.com."</f>
         <v>Step 44: Delete the member with email julie@hotmail.com.</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="str">
+      <c r="A46" s="12" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jack@hotmail.com to ","password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, bundles (1 standard, 1 deluxe), and location Mont Royal. ")</f>
         <v xml:space="preserve">Step 45: Update the member with email jack@hotmail.com to password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, bundles (1 standard, 1 deluxe), and location Mont Royal. </v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
+      <c r="A47" s="16" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Initiate the assignments"</f>
         <v>Step 46: Initiate the assignments</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
+      <c r="A49" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 47: view the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
+      <c r="A50" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jane@hotmail.com:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 48: view the assignment of jane@hotmail.com:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
+      <c r="A51" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jack@hotmail.com:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 49: view the assignment of jack@hotmail.com:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
+      <c r="A52" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 50: view the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
+      <c r="A53" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jennifer@hotmail.com:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 51: view the assignment of jennifer@hotmail.com:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
+      <c r="A54" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": view the assignment of jeremy@hotmail.com:
 Jeremy Black assigned to no guide for week 1; guide: $0, equipment: $0 [0]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 52: view the assignment of jeremy@hotmail.com:
 Jeremy Black assigned to no guide for week 1; guide: $0, equipment: $0 [0]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
+      <c r="A55" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com pays with authorization code PLUS; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Paid, authCode PLUS, 0% refund"</f>
         <v>Step 53: jack@hotmail.com pays with authorization code PLUS; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Paid, authCode PLUS, 0% refund</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
+      <c r="A56" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com pays with authorization code OK; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Paid, authCode OK, 0% refund"</f>
         <v>Step 54: jane@hotmail.com pays with authorization code OK; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Paid, authCode OK, 0% refund</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jennifer@hotmail.com cancels her trip; view her assignment:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Cancelled, no authCode, 0% refund"</f>
         <v>Step 55: jennifer@hotmail.com cancels her trip; view her assignment:
 Jennifer Black assigned to Susi Hill (susi@gmail.com) for weeks 1-3; guide: $180, equipment: $1560 [1737]; status: Cancelled, no authCode, 0% refund</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
+      <c r="A58" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": The administrator starts the trips for week 1."</f>
         <v>Step 56: The administrator starts the trips for week 1.</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
+      <c r="A59" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Banned, no authCode, 0% refund"</f>
         <v>Step 57: View the assignment of joe@hotmail.com:
 Joe Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 1-2; guide: $120, equipment: $120 [778]; status: Banned, no authCode, 0% refund</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
+      <c r="A60" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund"</f>
         <v>Step 58: View the assignment of jon@hotmail.com:
 Jon Black assigned to Sarah Hill (sarah@yahoo.ca) for weeks 3-5; guide: $180, equipment: $570 [870]; status: Assigned, no authCode, 0% refund</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
+      <c r="A61" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com cancels his trip; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Cancelled, authCode PLUS, 10% refund"</f>
         <v>Step 59: jack@hotmail.com cancels his trip; view his assignment:
 Jack Black assigned to Benny Hill (ben@gmail.com) for weeks 1-5; guide: $300, equipment: $1990 [2285]; status: Cancelled, authCode PLUS, 10% refund</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
     </row>
     <row r="62" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
+      <c r="A62" s="16" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com finishes her trip; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Finished, authCode OK, 0% refund"</f>
         <v>Step 60: jane@hotmail.com finishes her trip; view her assignment:
 Jane Black assigned to no guide for weeks 1-3; guide: $0, equipment: $390 [540]; status: Finished, authCode OK, 0% refund</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="str">
+      <c r="A63" s="18" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jack@hotmail.com reviews his trip with rating VeryGood and comment Loved the guide!"</f>
         <v>Step 61: jack@hotmail.com reviews his trip with rating VeryGood and comment Loved the guide!</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="str">
+      <c r="A64" s="18" t="str">
         <f>"Step "&amp;ROW()-2&amp;": jane@hotmail.com reviews her trip with rating Poor and comment Instructions unclear, got lost."</f>
         <v>Step 62: jane@hotmail.com reviews her trip with rating Poor and comment Instructions unclear, got lost.</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="str">
+      <c r="A65" s="18" t="str">
         <f>"Step "&amp;ROW()-2&amp;": View assignments and check that the reviews popped up."</f>
         <v>Step 63: View assignments and check that the reviews popped up.</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
@@ -2117,40 +2117,24 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A62:M62"/>
+    <mergeCell ref="A66:M66"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A46:M46"/>
     <mergeCell ref="A45:M45"/>
@@ -2164,24 +2148,40 @@
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A53:M53"/>
     <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="A66:M66"/>
-    <mergeCell ref="A64:M64"/>
-    <mergeCell ref="A63:M63"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A26:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
@@ -2382,15 +2382,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001E7BB30FBC6214DBD0D348E10E21199" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54b6358b3394cc8e6b2681295daed10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e587ebec-d06b-4919-a3ba-71b2a76ba151" xmlns:ns4="1a7954ed-4a60-4998-b9ad-5d668ec55e67" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac5c3bf46814848a179fc74bdc030b46" ns3:_="" ns4:_="">
     <xsd:import namespace="e587ebec-d06b-4919-a3ba-71b2a76ba151"/>
@@ -2613,6 +2604,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2620,14 +2620,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C087C8-56F2-4A31-96C9-71961D6842F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D84F19-FE83-4479-9586-04286BAD01BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2646,6 +2638,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C087C8-56F2-4A31-96C9-71961D6842F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6520150-4CC9-4AAB-A232-239A2E490B02}">
   <ds:schemaRefs>
